--- a/biology/Botanique/Gomphocarpus_fruticosus/Gomphocarpus_fruticosus.xlsx
+++ b/biology/Botanique/Gomphocarpus_fruticosus/Gomphocarpus_fruticosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gomphocarpus fruticosus est une espèce de plantes à fleurs de la famille Asclepiadaceae, selon la classification classique, des Apocynaceae, selon la classification phylogénétique. C'est un faux cotonnier. Son nom français est Arghel[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gomphocarpus fruticosus est une espèce de plantes à fleurs de la famille Asclepiadaceae, selon la classification classique, des Apocynaceae, selon la classification phylogénétique. C'est un faux cotonnier. Son nom français est Arghel.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arghel est un arbrisseau vivace, qui se présente sous forme d'une tige érigée pouvant atteindre 2 mètres de haut. Son suc laiteux est vénéneux. Les feuilles pointues, à bord enroulé, vertes sur les deux faces, se présentent sur la tige par 3 en verticille, à pétiole court et peuvent atteindre 10 cm de long pour 1 cm de large. Les inflorescences apparaissent aux aisselles des feuilles supérieures, en ombelle, à long pédoncule et recourbées. L'époque de floraison se situe de mai à septembre.
 Les fruits se présentent sous forme de capsules gonflées, avec des piquants souples. Ils sont longs de 4 à 6 cm.
@@ -552,7 +566,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante originaire d'Afrique du Sud, introduite à des fins ornementales. Elle est redevenue sauvage, répandue en des endroits humides, sableux, sur les rives de cours d'eau ou proche de la côte.
 </t>
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine Afrique du Sud, Méditerranée.
 </t>
@@ -614,9 +632,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Synonymes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Synonymes :
  Asclepias fruticosa  L.
  Asclepias salicifolia  Salisb.</t>
         </is>
